--- a/spider/demo/test/education_crawler/data/cingta2.xlsx
+++ b/spider/demo/test/education_crawler/data/cingta2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>高等教育相关国家部委网站</t>
     <rPh sb="0" eb="1">
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通知通告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,87 +80,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.nmkjt.gov.cn/kjtnews/nmkjtmore.asp?id=333&amp;cid=0&amp;vcd=333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广西壮族自治区科技厅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.gxst.gov.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.gxst.gov.cn/gxkjt/dtxx/001003/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西藏自治区科技厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.tibetsti.gov.cn/Index.aspx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.tibetsti.gov.cn/news-list.aspx?cate=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁夏回族自治区科技厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.nxkjt.gov.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技要闻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.nxkjt.gov.cn/info/iList.jsp?cat_id=10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.nxkjt.gov.cn/info/iList.jsp?cat_id=10009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新疆维吾尔自治区科技厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.xjkjt.gov.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.xjkjt.gov.cn/xjzzqkjt/xwzx/tztg/index.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技厅工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.xjkjt.gov.cn/xjzzqkjt/xwzx/kjtgz/index.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内蒙古自治区科技厅（知识产权局）</t>
-  </si>
-  <si>
     <t>广西壮族自治区科技厅</t>
   </si>
   <si>
-    <t>西藏自治区科技厅</t>
-  </si>
-  <si>
-    <t>宁夏回族自治区科技厅</t>
-  </si>
-  <si>
-    <t>新疆维吾尔自治区科技厅</t>
+    <t>http://www.gxst.gov.cn/gxkjt/</t>
   </si>
 </sst>
 </file>
@@ -306,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,9 +250,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -617,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="36" customHeight="1"/>
@@ -631,11 +555,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="36" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -649,14 +573,14 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
+      <c r="A3" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" customHeight="1">
@@ -667,107 +591,48 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="36" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
     </row>
     <row r="6" spans="1:3" ht="36" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
     </row>
     <row r="7" spans="1:3" ht="36" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
     </row>
     <row r="8" spans="1:3" ht="36" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
     </row>
     <row r="9" spans="1:3" ht="36" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
     </row>
     <row r="10" spans="1:3" ht="36" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
     </row>
     <row r="11" spans="1:3" ht="36" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
     </row>
     <row r="12" spans="1:3" ht="36" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="36" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -775,19 +640,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9"/>
-    <hyperlink ref="C12" r:id="rId10"/>
-    <hyperlink ref="C13" r:id="rId11"/>
+    <hyperlink ref="C4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>